--- a/Code/Results/Cases/Case_5_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.338844615623145</v>
+        <v>0.6591047123919509</v>
       </c>
       <c r="C2">
-        <v>0.2112183198358366</v>
+        <v>0.06979013589223371</v>
       </c>
       <c r="D2">
-        <v>0.04795454750309514</v>
+        <v>0.0764930503263459</v>
       </c>
       <c r="E2">
-        <v>0.2700124399821107</v>
+        <v>0.1128240276632582</v>
       </c>
       <c r="F2">
-        <v>1.757507636496541</v>
+        <v>1.807478639038322</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.454362460342878</v>
+        <v>0.651558464049657</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7097562136554174</v>
+        <v>0.3084085407963499</v>
       </c>
       <c r="N2">
-        <v>1.821228036076491</v>
+        <v>2.635021442869999</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.160087255853369</v>
+        <v>0.6141290824258192</v>
       </c>
       <c r="C3">
-        <v>0.1819168018285495</v>
+        <v>0.06204465075281007</v>
       </c>
       <c r="D3">
-        <v>0.04966467074697345</v>
+        <v>0.07671788444945538</v>
       </c>
       <c r="E3">
-        <v>0.233207271572347</v>
+        <v>0.1034124664791491</v>
       </c>
       <c r="F3">
-        <v>1.614842229502059</v>
+        <v>1.775948807909614</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.257404676717357</v>
+        <v>0.601413058193998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6133157082457927</v>
+        <v>0.2838194162092975</v>
       </c>
       <c r="N3">
-        <v>1.803948553973328</v>
+        <v>2.632067726334895</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.051979786363802</v>
+        <v>0.5869108781935779</v>
       </c>
       <c r="C4">
-        <v>0.1641792375585851</v>
+        <v>0.05731793280595809</v>
       </c>
       <c r="D4">
-        <v>0.05072542287609938</v>
+        <v>0.07685709186201173</v>
       </c>
       <c r="E4">
-        <v>0.2110692332100896</v>
+        <v>0.09770089020240391</v>
       </c>
       <c r="F4">
-        <v>1.530116299758106</v>
+        <v>1.757449805792177</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.138259432257911</v>
+        <v>0.5710057226790184</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5551189868902995</v>
+        <v>0.2689034936060395</v>
       </c>
       <c r="N4">
-        <v>1.795391930422426</v>
+        <v>2.630894410618922</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.008287633248358</v>
+        <v>0.5759186639842824</v>
       </c>
       <c r="C5">
-        <v>0.1570051828418997</v>
+        <v>0.05539892876647912</v>
       </c>
       <c r="D5">
-        <v>0.05116037733049783</v>
+        <v>0.07691410927512621</v>
       </c>
       <c r="E5">
-        <v>0.2021484179818387</v>
+        <v>0.09538999018739247</v>
       </c>
       <c r="F5">
-        <v>1.496248611152566</v>
+        <v>1.750127065168229</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.090097061213754</v>
+        <v>0.5587100363281934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5316257860308298</v>
+        <v>0.2628704109428028</v>
       </c>
       <c r="N5">
-        <v>1.792389612746263</v>
+        <v>2.630576868961612</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.001053019274707</v>
+        <v>0.5740994085061004</v>
       </c>
       <c r="C6">
-        <v>0.1558169389927002</v>
+        <v>0.05508070898170558</v>
       </c>
       <c r="D6">
-        <v>0.05123276365065443</v>
+        <v>0.07692359438741647</v>
       </c>
       <c r="E6">
-        <v>0.2006727793146368</v>
+        <v>0.09500726244970537</v>
       </c>
       <c r="F6">
-        <v>1.490662939435708</v>
+        <v>1.748924142906333</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.082121660145276</v>
+        <v>0.5566741022619794</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.527737259279796</v>
+        <v>0.2618713433420226</v>
       </c>
       <c r="N6">
-        <v>1.791919466545195</v>
+        <v>2.630533829007646</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.051389137410496</v>
+        <v>0.586762231313827</v>
       </c>
       <c r="C7">
-        <v>0.164082278716009</v>
+        <v>0.05729202357916563</v>
       </c>
       <c r="D7">
-        <v>0.05073127793514765</v>
+        <v>0.07685785965097747</v>
       </c>
       <c r="E7">
-        <v>0.2109485357765806</v>
+        <v>0.09766965768806557</v>
       </c>
       <c r="F7">
-        <v>1.529656960846168</v>
+        <v>1.757350175994475</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.137608392521571</v>
+        <v>0.5708395125882078</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5548012912553517</v>
+        <v>0.2688219466259838</v>
       </c>
       <c r="N7">
-        <v>1.795349518204645</v>
+        <v>2.630889478464752</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.276833706258117</v>
+        <v>0.6435144523371434</v>
       </c>
       <c r="C8">
-        <v>0.2010564516270534</v>
+        <v>0.0671133837222726</v>
       </c>
       <c r="D8">
-        <v>0.04854196120489185</v>
+        <v>0.0765703315062396</v>
       </c>
       <c r="E8">
-        <v>0.257216913231936</v>
+        <v>0.1095648137323337</v>
       </c>
       <c r="F8">
-        <v>1.70768112634822</v>
+        <v>1.796428184714287</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.386043277985749</v>
+        <v>0.6341886674001955</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6762711480063572</v>
+        <v>0.2998921696832753</v>
       </c>
       <c r="N8">
-        <v>1.814824114753009</v>
+        <v>2.633869860455675</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.734625092363729</v>
+        <v>0.757980601401357</v>
       </c>
       <c r="C9">
-        <v>0.276055730839829</v>
+        <v>0.08661038358275164</v>
       </c>
       <c r="D9">
-        <v>0.04433505189973896</v>
+        <v>0.07601575579693787</v>
       </c>
       <c r="E9">
-        <v>0.3523594447021239</v>
+        <v>0.1334376943439537</v>
       </c>
       <c r="F9">
-        <v>2.082694749749777</v>
+        <v>1.879920921771259</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.890346902600783</v>
+        <v>0.7614801266468305</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.924221578848325</v>
+        <v>0.3622883877112244</v>
       </c>
       <c r="N9">
-        <v>1.870870807395249</v>
+        <v>2.644815051827663</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.084549802884965</v>
+        <v>0.8440589803889225</v>
       </c>
       <c r="C10">
-        <v>0.3334229468165688</v>
+        <v>0.1010905547000505</v>
       </c>
       <c r="D10">
-        <v>0.04130014907387913</v>
+        <v>0.07561403926781285</v>
       </c>
       <c r="E10">
-        <v>0.4261269919422332</v>
+        <v>0.1513309495337865</v>
       </c>
       <c r="F10">
-        <v>2.378836236180376</v>
+        <v>1.945500955783601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.275842617062352</v>
+        <v>0.8569235279089469</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.11492318367435</v>
+        <v>0.4090641847685674</v>
       </c>
       <c r="N10">
-        <v>1.925352838722972</v>
+        <v>2.655996909133023</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247703075879031</v>
+        <v>0.883658487502089</v>
       </c>
       <c r="C11">
-        <v>0.3602023621883461</v>
+        <v>0.1077142584296382</v>
       </c>
       <c r="D11">
-        <v>0.03993302742434857</v>
+        <v>0.07543255222692746</v>
       </c>
       <c r="E11">
-        <v>0.4608266287045026</v>
+        <v>0.1595524870685381</v>
       </c>
       <c r="F11">
-        <v>2.519254818734709</v>
+        <v>1.976267830655786</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.455617045298226</v>
+        <v>0.9007731225269424</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.204189301650686</v>
+        <v>0.4305550452683065</v>
       </c>
       <c r="N11">
-        <v>1.953640831041866</v>
+        <v>2.661772659867268</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.310151276363626</v>
+        <v>0.8987179914255989</v>
       </c>
       <c r="C12">
-        <v>0.3704592134337759</v>
+        <v>0.110227917974612</v>
       </c>
       <c r="D12">
-        <v>0.03941745564307819</v>
+        <v>0.07536401123984859</v>
       </c>
       <c r="E12">
-        <v>0.4741595348509264</v>
+        <v>0.162677871343945</v>
       </c>
       <c r="F12">
-        <v>2.573362755827191</v>
+        <v>1.988053640294908</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.524435417870365</v>
+        <v>0.9174407350377862</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.238416139455197</v>
+        <v>0.4387242121703849</v>
       </c>
       <c r="N12">
-        <v>1.964914995884698</v>
+        <v>2.664059396719466</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.296670711535398</v>
+        <v>0.8954718025055968</v>
       </c>
       <c r="C13">
-        <v>0.3682447464375969</v>
+        <v>0.1096863136490356</v>
       </c>
       <c r="D13">
-        <v>0.03952839497022254</v>
+        <v>0.07537876451428627</v>
       </c>
       <c r="E13">
-        <v>0.4712789803414026</v>
+        <v>0.1620042224060256</v>
       </c>
       <c r="F13">
-        <v>2.561666115211693</v>
+        <v>1.98550933671379</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.50957931520341</v>
+        <v>0.9138482669619066</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.231024864048877</v>
+        <v>0.4369634469569235</v>
       </c>
       <c r="N13">
-        <v>1.962460899334957</v>
+        <v>2.663562469928877</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.25282680618966</v>
+        <v>0.8848961559837676</v>
       </c>
       <c r="C14">
-        <v>0.3610437630665047</v>
+        <v>0.1079209495268287</v>
       </c>
       <c r="D14">
-        <v>0.03989056708668404</v>
+        <v>0.07542690960459097</v>
       </c>
       <c r="E14">
-        <v>0.4619194918143847</v>
+        <v>0.1598093707382304</v>
       </c>
       <c r="F14">
-        <v>2.523686879471995</v>
+        <v>1.977234745268134</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.461263248718637</v>
+        <v>0.9021431164280784</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.206996290283357</v>
+        <v>0.4312265024039164</v>
       </c>
       <c r="N14">
-        <v>1.954556738988344</v>
+        <v>2.66195879236983</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.226060823463627</v>
+        <v>0.8784266197642978</v>
       </c>
       <c r="C15">
-        <v>0.3566486363832837</v>
+        <v>0.1068403214291607</v>
       </c>
       <c r="D15">
-        <v>0.04011269166846976</v>
+        <v>0.07545642396582863</v>
       </c>
       <c r="E15">
-        <v>0.456212568474335</v>
+        <v>0.1584665411666819</v>
       </c>
       <c r="F15">
-        <v>2.50054882227478</v>
+        <v>1.972183929869118</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.431768258761736</v>
+        <v>0.8949815604991045</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.192335242893677</v>
+        <v>0.4277165164709658</v>
       </c>
       <c r="N15">
-        <v>1.949790264972023</v>
+        <v>2.660989477408776</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.073975097443963</v>
+        <v>0.8414799938523174</v>
       </c>
       <c r="C16">
-        <v>0.3316880684891146</v>
+        <v>0.1006584288193437</v>
       </c>
       <c r="D16">
-        <v>0.04138977975667757</v>
+        <v>0.07562592544726066</v>
       </c>
       <c r="E16">
-        <v>0.423884644025371</v>
+        <v>0.1507953246818232</v>
       </c>
       <c r="F16">
-        <v>2.369783784623749</v>
+        <v>1.943509128293954</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.26419159200222</v>
+        <v>0.8540665972286661</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.109145176643857</v>
+        <v>0.4076640225996258</v>
       </c>
       <c r="N16">
-        <v>1.923579483677287</v>
+        <v>2.655633358498278</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.981756421165301</v>
+        <v>0.8189279777695333</v>
       </c>
       <c r="C17">
-        <v>0.316562507355826</v>
+        <v>0.0968755139171833</v>
       </c>
       <c r="D17">
-        <v>0.04217680032307403</v>
+        <v>0.07573023327228512</v>
       </c>
       <c r="E17">
-        <v>0.4043643815312663</v>
+        <v>0.1461104487950777</v>
       </c>
       <c r="F17">
-        <v>2.291101561263531</v>
+        <v>1.926157848115054</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.162591009016353</v>
+        <v>0.8290776494207535</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.05879677285499</v>
+        <v>0.3954172098195912</v>
       </c>
       <c r="N17">
-        <v>1.90843677837934</v>
+        <v>2.652524392397012</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.929082160013905</v>
+        <v>0.8059982311525573</v>
       </c>
       <c r="C18">
-        <v>0.3079257611399271</v>
+        <v>0.09470311771480056</v>
       </c>
       <c r="D18">
-        <v>0.04263072722131245</v>
+        <v>0.07579034634720916</v>
       </c>
       <c r="E18">
-        <v>0.3932424608205096</v>
+        <v>0.1434235137650717</v>
       </c>
       <c r="F18">
-        <v>2.246374771358077</v>
+        <v>1.916265736855237</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.104561052626195</v>
+        <v>0.814745283887504</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.030070300213318</v>
+        <v>0.3883931201024851</v>
       </c>
       <c r="N18">
-        <v>1.900053023364876</v>
+        <v>2.650801025497543</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911307966134785</v>
+        <v>0.8016275678141938</v>
       </c>
       <c r="C19">
-        <v>0.3050118302232079</v>
+        <v>0.09396816755042892</v>
       </c>
       <c r="D19">
-        <v>0.04278462945633343</v>
+        <v>0.07581071975580933</v>
       </c>
       <c r="E19">
-        <v>0.3894940942116065</v>
+        <v>0.142515073891083</v>
       </c>
       <c r="F19">
-        <v>2.231318652882734</v>
+        <v>1.9129315105057</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.08498010705145</v>
+        <v>0.8098995485277669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.020382187514514</v>
+        <v>0.3860182954256146</v>
       </c>
       <c r="N19">
-        <v>1.897268741084076</v>
+        <v>2.650228642281206</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.991534572569634</v>
+        <v>0.8213243720045682</v>
       </c>
       <c r="C20">
-        <v>0.3181659982440408</v>
+        <v>0.09727785497670993</v>
       </c>
       <c r="D20">
-        <v>0.04209288970897695</v>
+        <v>0.07571911729243652</v>
       </c>
       <c r="E20">
-        <v>0.4064312196312656</v>
+        <v>0.1466083646195315</v>
       </c>
       <c r="F20">
-        <v>2.299421866392635</v>
+        <v>1.927995820423348</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.173363597667162</v>
+        <v>0.8317335575214315</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.064131947531919</v>
+        <v>0.3967188351723152</v>
       </c>
       <c r="N20">
-        <v>1.91001461251301</v>
+        <v>2.652848634129455</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.265685951130536</v>
+        <v>0.88800073819408</v>
       </c>
       <c r="C21">
-        <v>0.3631555629339971</v>
+        <v>0.1084393318733419</v>
       </c>
       <c r="D21">
-        <v>0.03978412881012972</v>
+        <v>0.0754127631954491</v>
       </c>
       <c r="E21">
-        <v>0.4646631187774304</v>
+        <v>0.1604537219680822</v>
       </c>
       <c r="F21">
-        <v>2.53481596122478</v>
+        <v>1.979661521970286</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.475433799657537</v>
+        <v>0.9055794956546777</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.21404203371425</v>
+        <v>0.4329107354226238</v>
       </c>
       <c r="N21">
-        <v>1.956862627603812</v>
+        <v>2.662427124620194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.448791478276121</v>
+        <v>0.9319510374986635</v>
       </c>
       <c r="C22">
-        <v>0.3932453224194319</v>
+        <v>0.1157655844970975</v>
       </c>
       <c r="D22">
-        <v>0.03828775353535629</v>
+        <v>0.07521361868668386</v>
       </c>
       <c r="E22">
-        <v>0.5038614573808076</v>
+        <v>0.1695729386689493</v>
       </c>
       <c r="F22">
-        <v>2.694169595901428</v>
+        <v>2.01421563327375</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.677236679443638</v>
+        <v>0.9542079734535207</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.314521042253645</v>
+        <v>0.4567454280978751</v>
       </c>
       <c r="N22">
-        <v>1.990789244072033</v>
+        <v>2.669267917465845</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.350670642699242</v>
+        <v>0.9084596088641206</v>
       </c>
       <c r="C23">
-        <v>0.3771165394189779</v>
+        <v>0.1118524879337031</v>
       </c>
       <c r="D23">
-        <v>0.03908517167246472</v>
+        <v>0.07531980618042766</v>
       </c>
       <c r="E23">
-        <v>0.4828257793376522</v>
+        <v>0.1646992916983265</v>
       </c>
       <c r="F23">
-        <v>2.608573962894752</v>
+        <v>1.995701146475142</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.569090772023657</v>
+        <v>0.9282203552013186</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.260641842944864</v>
+        <v>0.4440076534438475</v>
       </c>
       <c r="N23">
-        <v>1.972358088050953</v>
+        <v>2.665563557624438</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.987112807454054</v>
+        <v>0.8202408509839074</v>
       </c>
       <c r="C24">
-        <v>0.3174408771280071</v>
+        <v>0.09709594895801388</v>
       </c>
       <c r="D24">
-        <v>0.04213082116910893</v>
+        <v>0.07572414237469083</v>
       </c>
       <c r="E24">
-        <v>0.4054964910889467</v>
+        <v>0.1463832367711291</v>
       </c>
       <c r="F24">
-        <v>2.29565868053912</v>
+        <v>1.927164613501532</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.168492129788376</v>
+        <v>0.8305327152614836</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.061719235973506</v>
+        <v>0.3961303181694973</v>
       </c>
       <c r="N24">
-        <v>1.909300275098289</v>
+        <v>2.652701845052164</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.608709587770363</v>
+        <v>0.7266699888265862</v>
       </c>
       <c r="C25">
-        <v>0.2554273284991808</v>
+        <v>0.08130938494247175</v>
       </c>
       <c r="D25">
-        <v>0.04546365985448464</v>
+        <v>0.07616478366076684</v>
       </c>
       <c r="E25">
-        <v>0.3260348695007522</v>
+        <v>0.1269188124458012</v>
       </c>
       <c r="F25">
-        <v>1.978001265360604</v>
+        <v>1.856593735678047</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.751644728219702</v>
+        <v>0.7267107997776634</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8558498042801332</v>
+        <v>0.3452474711761084</v>
       </c>
       <c r="N25">
-        <v>1.85356252261144</v>
+        <v>2.641304851207082</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6591047123919509</v>
+        <v>1.338844615623174</v>
       </c>
       <c r="C2">
-        <v>0.06979013589223371</v>
+        <v>0.2112183198359503</v>
       </c>
       <c r="D2">
-        <v>0.0764930503263459</v>
+        <v>0.0479545475029699</v>
       </c>
       <c r="E2">
-        <v>0.1128240276632582</v>
+        <v>0.2700124399821036</v>
       </c>
       <c r="F2">
-        <v>1.807478639038322</v>
+        <v>1.757507636496555</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.651558464049657</v>
+        <v>1.454362460342878</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3084085407963499</v>
+        <v>0.7097562136554245</v>
       </c>
       <c r="N2">
-        <v>2.635021442869999</v>
+        <v>1.821228036076477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6141290824258192</v>
+        <v>1.160087255853625</v>
       </c>
       <c r="C3">
-        <v>0.06204465075281007</v>
+        <v>0.1819168018287058</v>
       </c>
       <c r="D3">
-        <v>0.07671788444945538</v>
+        <v>0.04966467074686776</v>
       </c>
       <c r="E3">
-        <v>0.1034124664791491</v>
+        <v>0.2332072715723541</v>
       </c>
       <c r="F3">
-        <v>1.775948807909614</v>
+        <v>1.614842229502059</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.601413058193998</v>
+        <v>1.257404676717414</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2838194162092975</v>
+        <v>0.6133157082457998</v>
       </c>
       <c r="N3">
-        <v>2.632067726334895</v>
+        <v>1.803948553973314</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5869108781935779</v>
+        <v>1.05197978636383</v>
       </c>
       <c r="C4">
-        <v>0.05731793280595809</v>
+        <v>0.1641792375584856</v>
       </c>
       <c r="D4">
-        <v>0.07685709186201173</v>
+        <v>0.05072542287613224</v>
       </c>
       <c r="E4">
-        <v>0.09770089020240391</v>
+        <v>0.2110692332101038</v>
       </c>
       <c r="F4">
-        <v>1.757449805792177</v>
+        <v>1.530116299758078</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5710057226790184</v>
+        <v>1.138259432257883</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2689034936060395</v>
+        <v>0.5551189868902782</v>
       </c>
       <c r="N4">
-        <v>2.630894410618922</v>
+        <v>1.795391930422355</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5759186639842824</v>
+        <v>1.008287633248301</v>
       </c>
       <c r="C5">
-        <v>0.05539892876647912</v>
+        <v>0.1570051828419139</v>
       </c>
       <c r="D5">
-        <v>0.07691410927512621</v>
+        <v>0.0511603773307332</v>
       </c>
       <c r="E5">
-        <v>0.09538999018739247</v>
+        <v>0.2021484179818387</v>
       </c>
       <c r="F5">
-        <v>1.750127065168229</v>
+        <v>1.496248611152566</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5587100363281934</v>
+        <v>1.090097061213754</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2628704109428028</v>
+        <v>0.5316257860308298</v>
       </c>
       <c r="N5">
-        <v>2.630576868961612</v>
+        <v>1.792389612746248</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5740994085061004</v>
+        <v>1.001053019274934</v>
       </c>
       <c r="C6">
-        <v>0.05508070898170558</v>
+        <v>0.1558169389929986</v>
       </c>
       <c r="D6">
-        <v>0.07692359438741647</v>
+        <v>0.0512327636506571</v>
       </c>
       <c r="E6">
-        <v>0.09500726244970537</v>
+        <v>0.2006727793146439</v>
       </c>
       <c r="F6">
-        <v>1.748924142906333</v>
+        <v>1.490662939435708</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5566741022619794</v>
+        <v>1.082121660145248</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2618713433420226</v>
+        <v>0.5277372592798031</v>
       </c>
       <c r="N6">
-        <v>2.630533829007646</v>
+        <v>1.791919466545195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.586762231313827</v>
+        <v>1.051389137410524</v>
       </c>
       <c r="C7">
-        <v>0.05729202357916563</v>
+        <v>0.164082278716009</v>
       </c>
       <c r="D7">
-        <v>0.07685785965097747</v>
+        <v>0.05073127793526844</v>
       </c>
       <c r="E7">
-        <v>0.09766965768806557</v>
+        <v>0.2109485357766232</v>
       </c>
       <c r="F7">
-        <v>1.757350175994475</v>
+        <v>1.529656960846154</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5708395125882078</v>
+        <v>1.137608392521713</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2688219466259838</v>
+        <v>0.5548012912553588</v>
       </c>
       <c r="N7">
-        <v>2.630889478464752</v>
+        <v>1.79534951820456</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6435144523371434</v>
+        <v>1.27683370625823</v>
       </c>
       <c r="C8">
-        <v>0.0671133837222726</v>
+        <v>0.2010564516270676</v>
       </c>
       <c r="D8">
-        <v>0.0765703315062396</v>
+        <v>0.04854196120491849</v>
       </c>
       <c r="E8">
-        <v>0.1095648137323337</v>
+        <v>0.2572169132319218</v>
       </c>
       <c r="F8">
-        <v>1.796428184714287</v>
+        <v>1.707681126348234</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6341886674001955</v>
+        <v>1.386043277985777</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2998921696832753</v>
+        <v>0.6762711480063501</v>
       </c>
       <c r="N8">
-        <v>2.633869860455675</v>
+        <v>1.814824114753009</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.757980601401357</v>
+        <v>1.734625092363615</v>
       </c>
       <c r="C9">
-        <v>0.08661038358275164</v>
+        <v>0.276055730840028</v>
       </c>
       <c r="D9">
-        <v>0.07601575579693787</v>
+        <v>0.04433505189986064</v>
       </c>
       <c r="E9">
-        <v>0.1334376943439537</v>
+        <v>0.352359444702131</v>
       </c>
       <c r="F9">
-        <v>1.879920921771259</v>
+        <v>2.082694749749791</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7614801266468305</v>
+        <v>1.890346902600839</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3622883877112244</v>
+        <v>0.9242215788483179</v>
       </c>
       <c r="N9">
-        <v>2.644815051827663</v>
+        <v>1.870870807395264</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8440589803889225</v>
+        <v>2.084549802884794</v>
       </c>
       <c r="C10">
-        <v>0.1010905547000505</v>
+        <v>0.3334229468167678</v>
       </c>
       <c r="D10">
-        <v>0.07561403926781285</v>
+        <v>0.04130014907363311</v>
       </c>
       <c r="E10">
-        <v>0.1513309495337865</v>
+        <v>0.4261269919422404</v>
       </c>
       <c r="F10">
-        <v>1.945500955783601</v>
+        <v>2.378836236180362</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8569235279089469</v>
+        <v>2.275842617062295</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4090641847685674</v>
+        <v>1.114923183674343</v>
       </c>
       <c r="N10">
-        <v>2.655996909133023</v>
+        <v>1.925352838722944</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.883658487502089</v>
+        <v>2.247703075879031</v>
       </c>
       <c r="C11">
-        <v>0.1077142584296382</v>
+        <v>0.3602023621881472</v>
       </c>
       <c r="D11">
-        <v>0.07543255222692746</v>
+        <v>0.03993302742437166</v>
       </c>
       <c r="E11">
-        <v>0.1595524870685381</v>
+        <v>0.4608266287045453</v>
       </c>
       <c r="F11">
-        <v>1.976267830655786</v>
+        <v>2.519254818734709</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9007731225269424</v>
+        <v>2.455617045298254</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4305550452683065</v>
+        <v>1.204189301650743</v>
       </c>
       <c r="N11">
-        <v>2.661772659867268</v>
+        <v>1.953640831041838</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8987179914255989</v>
+        <v>2.310151276363626</v>
       </c>
       <c r="C12">
-        <v>0.110227917974612</v>
+        <v>0.3704592134337759</v>
       </c>
       <c r="D12">
-        <v>0.07536401123984859</v>
+        <v>0.03941745564319188</v>
       </c>
       <c r="E12">
-        <v>0.162677871343945</v>
+        <v>0.4741595348509264</v>
       </c>
       <c r="F12">
-        <v>1.988053640294908</v>
+        <v>2.573362755827191</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9174407350377862</v>
+        <v>2.524435417870308</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4387242121703849</v>
+        <v>1.238416139455211</v>
       </c>
       <c r="N12">
-        <v>2.664059396719466</v>
+        <v>1.964914995884698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8954718025055968</v>
+        <v>2.296670711535398</v>
       </c>
       <c r="C13">
-        <v>0.1096863136490356</v>
+        <v>0.3682447464380232</v>
       </c>
       <c r="D13">
-        <v>0.07537876451428627</v>
+        <v>0.03952839497020921</v>
       </c>
       <c r="E13">
-        <v>0.1620042224060256</v>
+        <v>0.4712789803413386</v>
       </c>
       <c r="F13">
-        <v>1.98550933671379</v>
+        <v>2.561666115211665</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9138482669619066</v>
+        <v>2.509579315203354</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4369634469569235</v>
+        <v>1.231024864048862</v>
       </c>
       <c r="N13">
-        <v>2.663562469928877</v>
+        <v>1.962460899334985</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8848961559837676</v>
+        <v>2.25282680618966</v>
       </c>
       <c r="C14">
-        <v>0.1079209495268287</v>
+        <v>0.3610437630665047</v>
       </c>
       <c r="D14">
-        <v>0.07542690960459097</v>
+        <v>0.03989056708690786</v>
       </c>
       <c r="E14">
-        <v>0.1598093707382304</v>
+        <v>0.4619194918143847</v>
       </c>
       <c r="F14">
-        <v>1.977234745268134</v>
+        <v>2.523686879472024</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9021431164280784</v>
+        <v>2.461263248718723</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4312265024039164</v>
+        <v>1.206996290283371</v>
       </c>
       <c r="N14">
-        <v>2.66195879236983</v>
+        <v>1.954556738988373</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8784266197642978</v>
+        <v>2.226060823463627</v>
       </c>
       <c r="C15">
-        <v>0.1068403214291607</v>
+        <v>0.3566486363835111</v>
       </c>
       <c r="D15">
-        <v>0.07545642396582863</v>
+        <v>0.04011269166859055</v>
       </c>
       <c r="E15">
-        <v>0.1584665411666819</v>
+        <v>0.4562125684743066</v>
       </c>
       <c r="F15">
-        <v>1.972183929869118</v>
+        <v>2.500548822274808</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8949815604991045</v>
+        <v>2.43176825876165</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4277165164709658</v>
+        <v>1.192335242893677</v>
       </c>
       <c r="N15">
-        <v>2.660989477408776</v>
+        <v>1.949790264972052</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8414799938523174</v>
+        <v>2.073975097444134</v>
       </c>
       <c r="C16">
-        <v>0.1006584288193437</v>
+        <v>0.331688068489143</v>
       </c>
       <c r="D16">
-        <v>0.07562592544726066</v>
+        <v>0.04138977975633207</v>
       </c>
       <c r="E16">
-        <v>0.1507953246818232</v>
+        <v>0.4238846440253852</v>
       </c>
       <c r="F16">
-        <v>1.943509128293954</v>
+        <v>2.369783784623749</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8540665972286661</v>
+        <v>2.264191592002305</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4076640225996258</v>
+        <v>1.109145176643857</v>
       </c>
       <c r="N16">
-        <v>2.655633358498278</v>
+        <v>1.923579483677258</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8189279777695333</v>
+        <v>1.981756421165244</v>
       </c>
       <c r="C17">
-        <v>0.0968755139171833</v>
+        <v>0.3165625073555418</v>
       </c>
       <c r="D17">
-        <v>0.07573023327228512</v>
+        <v>0.04217680032318061</v>
       </c>
       <c r="E17">
-        <v>0.1461104487950777</v>
+        <v>0.4043643815312734</v>
       </c>
       <c r="F17">
-        <v>1.926157848115054</v>
+        <v>2.291101561263531</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8290776494207535</v>
+        <v>2.162591009016325</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3954172098195912</v>
+        <v>1.058796772854983</v>
       </c>
       <c r="N17">
-        <v>2.652524392397012</v>
+        <v>1.908436778379283</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8059982311525573</v>
+        <v>1.92908216001419</v>
       </c>
       <c r="C18">
-        <v>0.09470311771480056</v>
+        <v>0.3079257611399271</v>
       </c>
       <c r="D18">
-        <v>0.07579034634720916</v>
+        <v>0.0426307272212183</v>
       </c>
       <c r="E18">
-        <v>0.1434235137650717</v>
+        <v>0.3932424608204812</v>
       </c>
       <c r="F18">
-        <v>1.916265736855237</v>
+        <v>2.246374771358077</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.814745283887504</v>
+        <v>2.104561052626281</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3883931201024851</v>
+        <v>1.030070300213318</v>
       </c>
       <c r="N18">
-        <v>2.650801025497543</v>
+        <v>1.900053023364876</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8016275678141938</v>
+        <v>1.911307966134984</v>
       </c>
       <c r="C19">
-        <v>0.09396816755042892</v>
+        <v>0.3050118302232079</v>
       </c>
       <c r="D19">
-        <v>0.07581071975580933</v>
+        <v>0.04278462945634587</v>
       </c>
       <c r="E19">
-        <v>0.142515073891083</v>
+        <v>0.3894940942115639</v>
       </c>
       <c r="F19">
-        <v>1.9129315105057</v>
+        <v>2.231318652882734</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8098995485277669</v>
+        <v>2.084980107051479</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3860182954256146</v>
+        <v>1.020382187514521</v>
       </c>
       <c r="N19">
-        <v>2.650228642281206</v>
+        <v>1.897268741084105</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8213243720045682</v>
+        <v>1.991534572569549</v>
       </c>
       <c r="C20">
-        <v>0.09727785497670993</v>
+        <v>0.3181659982440124</v>
       </c>
       <c r="D20">
-        <v>0.07571911729243652</v>
+        <v>0.04209288970886593</v>
       </c>
       <c r="E20">
-        <v>0.1466083646195315</v>
+        <v>0.406431219631223</v>
       </c>
       <c r="F20">
-        <v>1.927995820423348</v>
+        <v>2.299421866392635</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8317335575214315</v>
+        <v>2.173363597667077</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3967188351723152</v>
+        <v>1.064131947531905</v>
       </c>
       <c r="N20">
-        <v>2.652848634129455</v>
+        <v>1.910014612512981</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.88800073819408</v>
+        <v>2.265685951130649</v>
       </c>
       <c r="C21">
-        <v>0.1084393318733419</v>
+        <v>0.3631555629337413</v>
       </c>
       <c r="D21">
-        <v>0.0754127631954491</v>
+        <v>0.03978412880989524</v>
       </c>
       <c r="E21">
-        <v>0.1604537219680822</v>
+        <v>0.4646631187774304</v>
       </c>
       <c r="F21">
-        <v>1.979661521970286</v>
+        <v>2.53481596122478</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9055794956546777</v>
+        <v>2.475433799657537</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4329107354226238</v>
+        <v>1.214042033714236</v>
       </c>
       <c r="N21">
-        <v>2.662427124620194</v>
+        <v>1.95686262760384</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9319510374986635</v>
+        <v>2.448791478276235</v>
       </c>
       <c r="C22">
-        <v>0.1157655844970975</v>
+        <v>0.3932453224194035</v>
       </c>
       <c r="D22">
-        <v>0.07521361868668386</v>
+        <v>0.03828775353545666</v>
       </c>
       <c r="E22">
-        <v>0.1695729386689493</v>
+        <v>0.5038614573808147</v>
       </c>
       <c r="F22">
-        <v>2.01421563327375</v>
+        <v>2.6941695959014</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9542079734535207</v>
+        <v>2.67723667944361</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4567454280978751</v>
+        <v>1.314521042253659</v>
       </c>
       <c r="N22">
-        <v>2.669267917465845</v>
+        <v>1.990789244072062</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9084596088641206</v>
+        <v>2.350670642699299</v>
       </c>
       <c r="C23">
-        <v>0.1118524879337031</v>
+        <v>0.3771165394185516</v>
       </c>
       <c r="D23">
-        <v>0.07531980618042766</v>
+        <v>0.03908517167257397</v>
       </c>
       <c r="E23">
-        <v>0.1646992916983265</v>
+        <v>0.4828257793376878</v>
       </c>
       <c r="F23">
-        <v>1.995701146475142</v>
+        <v>2.608573962894724</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9282203552013186</v>
+        <v>2.569090772023571</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4440076534438475</v>
+        <v>1.260641842944864</v>
       </c>
       <c r="N23">
-        <v>2.665563557624438</v>
+        <v>1.972358088050981</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8202408509839074</v>
+        <v>1.987112807453968</v>
       </c>
       <c r="C24">
-        <v>0.09709594895801388</v>
+        <v>0.3174408771279786</v>
       </c>
       <c r="D24">
-        <v>0.07572414237469083</v>
+        <v>0.04213082116899081</v>
       </c>
       <c r="E24">
-        <v>0.1463832367711291</v>
+        <v>0.4054964910889893</v>
       </c>
       <c r="F24">
-        <v>1.927164613501532</v>
+        <v>2.295658680539134</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8305327152614836</v>
+        <v>2.168492129788319</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3961303181694973</v>
+        <v>1.061719235973513</v>
       </c>
       <c r="N24">
-        <v>2.652701845052164</v>
+        <v>1.909300275098289</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7266699888265862</v>
+        <v>1.608709587770392</v>
       </c>
       <c r="C25">
-        <v>0.08130938494247175</v>
+        <v>0.2554273284995077</v>
       </c>
       <c r="D25">
-        <v>0.07616478366076684</v>
+        <v>0.04546365985437717</v>
       </c>
       <c r="E25">
-        <v>0.1269188124458012</v>
+        <v>0.3260348695007593</v>
       </c>
       <c r="F25">
-        <v>1.856593735678047</v>
+        <v>1.978001265360604</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7267107997776634</v>
+        <v>1.751644728219617</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3452474711761084</v>
+        <v>0.8558498042801403</v>
       </c>
       <c r="N25">
-        <v>2.641304851207082</v>
+        <v>1.85356252261144</v>
       </c>
       <c r="O25">
         <v>0</v>
